--- a/GithubResults_Deterministic.xlsx
+++ b/GithubResults_Deterministic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225290\Desktop\Research\AnyLogic\OutputAnalysis\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF5D111-908F-4958-9AC3-02865CF2025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC4F64-F7E9-4AE7-8B7E-6FB70738A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept (I)" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -130,6 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1441,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4367171A-6AAF-4048-86BB-CB3AB46EE5FF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1594,7 @@
       <c r="C6" s="3">
         <v>11.9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>12.48</v>
       </c>
       <c r="E6" s="3">
@@ -1625,7 +1626,7 @@
       <c r="C7" s="3">
         <v>12.11</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>12.69</v>
       </c>
       <c r="E7" s="3">
@@ -1918,7 +1919,7 @@
       <c r="C17" s="3">
         <v>0.4</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>0.41</v>
       </c>
       <c r="E17" s="3">
@@ -1950,7 +1951,7 @@
       <c r="C18" s="3">
         <v>0.27</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>0.28999999999999998</v>
       </c>
       <c r="E18" s="3">
@@ -2243,7 +2244,7 @@
       <c r="C28" s="3">
         <v>0.62</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>0.41</v>
       </c>
       <c r="E28" s="3">
@@ -2275,7 +2276,7 @@
       <c r="C29" s="3">
         <v>0.63</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <v>0.42</v>
       </c>
       <c r="E29" s="3">

--- a/GithubResults_Deterministic.xlsx
+++ b/GithubResults_Deterministic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225290\Desktop\Research\AnyLogic\OutputAnalysis\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC4F64-F7E9-4AE7-8B7E-6FB70738A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F123B510-04C4-44F3-BB87-DD06A5222335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept (I)" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -130,7 +130,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1442,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4367171A-6AAF-4048-86BB-CB3AB46EE5FF}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1625,7 @@
       <c r="C7" s="3">
         <v>12.11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>12.69</v>
       </c>
       <c r="E7" s="3">
@@ -1951,7 +1950,7 @@
       <c r="C18" s="3">
         <v>0.27</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="E18" s="3">
@@ -2276,7 +2275,7 @@
       <c r="C29" s="3">
         <v>0.63</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>0.42</v>
       </c>
       <c r="E29" s="3">
